--- a/data/trans_dic/iP30A2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30A2_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>56,83%</t>
+          <t>63,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>54,95%</t>
+          <t>63,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>55,95%</t>
+          <t>63,26%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51,29; 61,62</t>
+          <t>56,86; 68,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,54; 59,79</t>
+          <t>57,51; 68,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,52; 59,76</t>
+          <t>58,99; 67,24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>63,31%</t>
+          <t>56,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>63,2%</t>
+          <t>54,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>63,26%</t>
+          <t>55,95%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>56,86; 68,8</t>
+          <t>51,29; 61,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>57,51; 68,76</t>
+          <t>49,54; 59,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>58,99; 67,24</t>
+          <t>52,52; 59,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30A2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30A2_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>66,46%</t>
+          <t>63,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>64,92%</t>
+          <t>55,23%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>65,73%</t>
+          <t>59,05%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>59,17; 72,84</t>
+          <t>51,6; 73,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>56,57; 71,47</t>
+          <t>43,88; 66,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60,43; 70,68</t>
+          <t>51,03; 66,35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>63,31%</t>
+          <t>65,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>63,2%</t>
+          <t>66,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>63,26%</t>
+          <t>66,16%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56,86; 68,8</t>
+          <t>59,2; 70,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>57,51; 68,76</t>
+          <t>60,58; 72,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,99; 67,24</t>
+          <t>62,12; 70,37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>56,83%</t>
+          <t>63,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>54,95%</t>
+          <t>61,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>55,95%</t>
+          <t>62,69%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,29; 61,62</t>
+          <t>57,44; 69,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>49,54; 59,79</t>
+          <t>55,21; 68,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,52; 59,76</t>
+          <t>58,18; 66,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>60,09%</t>
+          <t>54,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>58,95%</t>
+          <t>52,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>59,55%</t>
+          <t>53,43%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>56,62; 63,44</t>
+          <t>47,73; 60,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,09; 62,15</t>
+          <t>45,1; 58,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>56,75; 62,01</t>
+          <t>48,97; 57,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>60,09%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>58,95%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>59,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>56,59; 63,73</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>54,84; 62,15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>56,87; 61,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
